--- a/starrail/output/xlsx/全成就-版本分表.xlsx
+++ b/starrail/output/xlsx/全成就-版本分表.xlsx
@@ -8,14 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\Python\GameData\starrail\output\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{469BE6D9-7D9A-4DC6-AF30-ECD4C85CC8C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7CC41599-6981-4638-B589-C330CFD15D0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8175" yWindow="495" windowWidth="14475" windowHeight="11505" xr2:uid="{25D1D9BC-E6DD-4A77-BA6A-C66A655E8747}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11505" xr2:uid="{FBDB0306-05B5-40F0-90F5-FDE8E8D284CA}"/>
   </bookViews>
   <sheets>
-    <sheet name="1.2版本" sheetId="4" r:id="rId1"/>
-    <sheet name="1.1版本" sheetId="3" r:id="rId2"/>
-    <sheet name="1.0版本" sheetId="2" r:id="rId3"/>
+    <sheet name="1.4版本" sheetId="6" r:id="rId1"/>
+    <sheet name="1.3版本" sheetId="5" r:id="rId2"/>
+    <sheet name="1.2版本" sheetId="4" r:id="rId3"/>
+    <sheet name="1.1版本" sheetId="3" r:id="rId4"/>
+    <sheet name="1.0版本" sheetId="2" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2358" uniqueCount="804">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3132" uniqueCount="1058">
   <si>
     <t>星穹铁道 1.0 版本成就</t>
   </si>
@@ -1364,7 +1366,7 @@
     <t>极限求生</t>
   </si>
   <si>
-    <t>当队伍中4名角色生命值百分比同时小于等于0%的情况下获得战斗胜利</t>
+    <t>当队伍中4名角色生命值百分比同时小于等于5%的情况下获得战斗胜利</t>
   </si>
   <si>
     <t>子弹时间</t>
@@ -1382,7 +1384,7 @@
     <t>大炮打蚊子</t>
   </si>
   <si>
-    <t>单次攻击对当前生命值百分比小于等于0%的敌方目标造成大于等于20000点伤害</t>
+    <t>单次攻击对当前生命值百分比小于等于1%的敌方目标造成大于等于20000点伤害</t>
   </si>
   <si>
     <t>主角的特权</t>
@@ -1799,7 +1801,7 @@
     <t>最初和最终的自由</t>
   </si>
   <si>
-    <t>「模拟宇宙」内，进入战斗时我方4名角色当前生命值百分比均小于等于0%</t>
+    <t>「模拟宇宙」内，进入战斗时我方4名角色当前生命值百分比均小于等于1%</t>
   </si>
   <si>
     <t>果壳中的宇宙</t>
@@ -1832,7 +1834,7 @@
     <t>二十四首情诗与一首绝望的歌</t>
   </si>
   <si>
-    <t>「模拟宇宙」战斗胜利时，我方所有角色当前生命值百分比小于等于0%</t>
+    <t>「模拟宇宙」战斗胜利时，我方所有角色当前生命值百分比小于等于5%</t>
   </si>
   <si>
     <t>黑暗中跳舞的心脏叫月亮</t>
@@ -2159,7 +2161,7 @@
     <t>收集80本来自仙舟「罗浮」的阅读物</t>
   </si>
   <si>
-    <t>生成于  2023-07-19 22:11</t>
+    <t>生成于  2023-10-11 22:39</t>
   </si>
   <si>
     <t>米游社: 烂柯Lankei</t>
@@ -2336,7 +2338,7 @@
     <t>求不得</t>
   </si>
   <si>
-    <t>单场战斗中，使用我方角色刃在单次攻击中从血量小于等于&lt;unbreak&gt;#1[i]%&lt;/unbreak&gt;恢复至大于等于&lt;unbreak&gt;30%&lt;/unbreak&gt;&lt;unbreak&gt;#2[i]&lt;/unbreak&gt;次</t>
+    <t>多事</t>
   </si>
   <si>
     <t>地下守护者</t>
@@ -2360,19 +2362,19 @@
     <t>长生梦短</t>
   </si>
   <si>
-    <t>击败「药王秘传」魁首</t>
+    <t>如果死而复生，就再杀一次…</t>
   </si>
   <si>
     <t>饮月君临</t>
   </si>
   <si>
-    <t>目睹丹恒分开鳞渊境的海水</t>
+    <t>海若不隐珠，骊龙吐明月</t>
   </si>
   <si>
     <t>若木折枝</t>
   </si>
   <si>
-    <t>帮助景元击败幻胧</t>
+    <t>一切阴谋诡计必将覆灭</t>
   </si>
   <si>
     <t>愿者不上钩</t>
@@ -2448,6 +2450,768 @@
   </si>
   <si>
     <t>真正的自由意志</t>
+  </si>
+  <si>
+    <t>星穹铁道 1.3 版本成就</t>
+  </si>
+  <si>
+    <t>《菲雅尔塔的春天》</t>
+  </si>
+  <si>
+    <t>使用「欢愉」命途通关「模拟宇宙：寰宇蝗灾」时，累计获得12种不同的「快乐」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3	</t>
+  </si>
+  <si>
+    <t>秋狝冬狩</t>
+  </si>
+  <si>
+    <t>「模拟宇宙：寰宇蝗灾」内，使用使用「巡猎」命途在单一位面通过战斗捕捉8只以上扑满</t>
+  </si>
+  <si>
+    <t>心房客</t>
+  </si>
+  <si>
+    <t>「模拟宇宙：寰宇蝗灾」内，使用「记忆」命途连续6次复制【奖励】区域</t>
+  </si>
+  <si>
+    <t>铁血战士</t>
+  </si>
+  <si>
+    <t>使用「毁灭」命途通关「模拟宇宙：寰宇蝗灾」时，获得40场战斗胜利</t>
+  </si>
+  <si>
+    <t>象征交换与死亡</t>
+  </si>
+  <si>
+    <t>使用「虚无」命途通关「模拟宇宙：寰宇蝗灾」时，进入15个【空白】区域</t>
+  </si>
+  <si>
+    <t>模拟宇宙不是一天建成的</t>
+  </si>
+  <si>
+    <t>使用「存护」命途通关「模拟宇宙：寰宇蝗灾」时，为8种不同类型的区域附加【基石】</t>
+  </si>
+  <si>
+    <t>弹指一挥</t>
+  </si>
+  <si>
+    <t>使用「丰饶」命途通关「模拟宇宙：寰宇蝗灾」时，倒计时大于等于80</t>
+  </si>
+  <si>
+    <t>重返克兰达夫</t>
+  </si>
+  <si>
+    <t>使用「繁育」命途通关「模拟宇宙：寰宇蝗灾」时，进入15次【战斗•虫群】、【事件•虫群】或【首领•虫群】区域</t>
+  </si>
+  <si>
+    <t>《欢迎来到猴子展厅》</t>
+  </si>
+  <si>
+    <t>「模拟宇宙：寰宇蝗灾」内，累计投掷觐见之骰•欢愉100次</t>
+  </si>
+  <si>
+    <t>飞砾雨散，刚瘅必毙</t>
+  </si>
+  <si>
+    <t>「模拟宇宙：寰宇蝗灾」内，累计投掷觐见之骰•巡猎100次</t>
+  </si>
+  <si>
+    <t>永恒和一日</t>
+  </si>
+  <si>
+    <t>「模拟宇宙：寰宇蝗灾」内，累计投掷觐见之骰•记忆100次</t>
+  </si>
+  <si>
+    <t>作为表象的世界</t>
+  </si>
+  <si>
+    <t>「模拟宇宙：寰宇蝗灾」内，累计投掷觐见之骰•虚无100次</t>
+  </si>
+  <si>
+    <t>焦土政策</t>
+  </si>
+  <si>
+    <t>「模拟宇宙：寰宇蝗灾」内，累计投掷觐见之骰•毁灭100次</t>
+  </si>
+  <si>
+    <t>声闻缘觉</t>
+  </si>
+  <si>
+    <t>「模拟宇宙：寰宇蝗灾」内，累计投掷觐见之骰•丰饶100次</t>
+  </si>
+  <si>
+    <t>均匀成核</t>
+  </si>
+  <si>
+    <t>「模拟宇宙：寰宇蝗灾」内，累计投掷觐见之骰•存护100次</t>
+  </si>
+  <si>
+    <t>玛士撒拉之子</t>
+  </si>
+  <si>
+    <t>「模拟宇宙：寰宇蝗灾」内，累计投掷觐见之骰•繁育100次</t>
+  </si>
+  <si>
+    <t>智库长</t>
+  </si>
+  <si>
+    <t>通关「模拟宇宙：寰宇蝗灾」时，拥有的宇宙碎片数量大于等于9999</t>
+  </si>
+  <si>
+    <t>手可摘星辰</t>
+  </si>
+  <si>
+    <t>在「模拟宇宙：寰宇蝗灾」的事件星际和平公司「升职记」中&lt;u&gt;掌握了无尽权力&lt;/u&gt;</t>
+  </si>
+  <si>
+    <t>Q先生</t>
+  </si>
+  <si>
+    <t>在「模拟宇宙：寰宇蝗灾」中，在同一个【交易】区域内购买所有祝福商店与奇物商店的商品</t>
+  </si>
+  <si>
+    <t>欢迎来到瓦尔哈拉</t>
+  </si>
+  <si>
+    <t>在「模拟宇宙：寰宇蝗灾」中，在事件天才俱乐部#55余清涂触发的战斗中失败</t>
+  </si>
+  <si>
+    <t>无敌破坏王Ⅱ</t>
+  </si>
+  <si>
+    <t>在一次「模拟宇宙：寰宇蝗灾」中，本次挑战累计击破可破坏物数量大于等于100</t>
+  </si>
+  <si>
+    <t>牧场物语</t>
+  </si>
+  <si>
+    <t>在「模拟宇宙：寰宇蝗灾」的一个【冒险】区域内捕捉扑满数量大于等于16</t>
+  </si>
+  <si>
+    <t>不同命途的房间</t>
+  </si>
+  <si>
+    <t>在「模拟宇宙：寰宇蝗灾」中，点亮1个隐藏的【行者之道】</t>
+  </si>
+  <si>
+    <t>独唱团</t>
+  </si>
+  <si>
+    <t>在一次「模拟宇宙：寰宇蝗灾」中，发生2次回响交错</t>
+  </si>
+  <si>
+    <t>存护还是毁灭？</t>
+  </si>
+  <si>
+    <t>在「模拟宇宙：寰宇蝗灾」的【事件】区域中，完成1次命途的抉择</t>
+  </si>
+  <si>
+    <t>命运转盘</t>
+  </si>
+  <si>
+    <t>在「模拟宇宙：寰宇蝗灾」的【事件】区域中，完成所有命途的抉择</t>
+  </si>
+  <si>
+    <t>笃定发生</t>
+  </si>
+  <si>
+    <t>在「模拟宇宙：寰宇蝗灾」中，累计使用10次作弊</t>
+  </si>
+  <si>
+    <t>回到未来</t>
+  </si>
+  <si>
+    <t>在「模拟宇宙：寰宇蝗灾」中，累计使用50次重投</t>
+  </si>
+  <si>
+    <t>永恒国度的终焉</t>
+  </si>
+  <si>
+    <t>在「模拟宇宙：寰宇蝗灾」中，使用「虚无」以外的命途进入【空白】区域</t>
+  </si>
+  <si>
+    <t>乘坐彗星</t>
+  </si>
+  <si>
+    <t>在「模拟宇宙：寰宇蝗灾」中，在任意【冒险】区域达成所有目标</t>
+  </si>
+  <si>
+    <t>维兰德汤谷调查员</t>
+  </si>
+  <si>
+    <t>在「模拟宇宙：寰宇蝗灾」中，使用「繁育」以外的命途累计进入15次【战斗•虫群】、【事件•虫群】或【首领•虫群】区域</t>
+  </si>
+  <si>
+    <t>质量中继器</t>
+  </si>
+  <si>
+    <t>在「模拟宇宙：寰宇蝗灾」通关时，使【位面紊乱！】的【扰动等级】大于等于20级</t>
+  </si>
+  <si>
+    <t>虫巢意志</t>
+  </si>
+  <si>
+    <t>「模拟宇宙」内，累计解锁1个「繁育」命途的祝福</t>
+  </si>
+  <si>
+    <t>第四阶段</t>
+  </si>
+  <si>
+    <t>通关「模拟宇宙」时，携带「繁育」命途的祝福数量大于等于10</t>
+  </si>
+  <si>
+    <t>四百击</t>
+  </si>
+  <si>
+    <t>「模拟宇宙」内，单场战斗中累计使用至少40次普攻并获胜</t>
+  </si>
+  <si>
+    <t>宇宙静悄悄</t>
+  </si>
+  <si>
+    <t>通关「模拟宇宙：寰宇蝗灾」全部寰宇蝗灾剧情</t>
+  </si>
+  <si>
+    <t>异乡异客</t>
+  </si>
+  <si>
+    <t>收集「模拟宇宙：寰宇蝗灾」全部开拓秘闻剧情</t>
+  </si>
+  <si>
+    <t>轨道核打击</t>
+  </si>
+  <si>
+    <t>完成「模拟宇宙：寰宇蝗灾」第五难度</t>
+  </si>
+  <si>
+    <t>逐蝗疫于四裔</t>
+  </si>
+  <si>
+    <t>收集「寰宇蝗灾」的章节「巡猎Ⅰ」</t>
+  </si>
+  <si>
+    <t>巴别塔之梦</t>
+  </si>
+  <si>
+    <t>收集「寰宇蝗灾」的章节「存护Ⅱ」</t>
+  </si>
+  <si>
+    <t>看哪，这人</t>
+  </si>
+  <si>
+    <t>收集「寰宇蝗灾」的章节「虚无Ⅰ」</t>
+  </si>
+  <si>
+    <t>先别急</t>
+  </si>
+  <si>
+    <t>在被敌方追击状态下坚持15秒不进入战斗</t>
+  </si>
+  <si>
+    <t>茶浓于水</t>
+  </si>
+  <si>
+    <t>连续3天每天饮用「仙人快乐茶」</t>
+  </si>
+  <si>
+    <t>罗浮老饕</t>
+  </si>
+  <si>
+    <t>连续3天每天饮用「苏打豆汁儿」</t>
+  </si>
+  <si>
+    <t>只是张图片</t>
+  </si>
+  <si>
+    <t>首次更换手机壁纸</t>
+  </si>
+  <si>
+    <t>超越语言的艺术</t>
+  </si>
+  <si>
+    <t>首次更换短信和聊天对话框</t>
+  </si>
+  <si>
+    <t>帕姆总冠军！</t>
+  </si>
+  <si>
+    <t>累计对5个好友发送帕姆的表情图片</t>
+  </si>
+  <si>
+    <t>尽在不言中</t>
+  </si>
+  <si>
+    <t>累计发送20张星穹列车成员的表情图片</t>
+  </si>
+  <si>
+    <t>致世界上的另一个我</t>
+  </si>
+  <si>
+    <t>收到另一个性别的开拓者表情图片</t>
+  </si>
+  <si>
+    <t>生者为过客</t>
+  </si>
+  <si>
+    <t>告别仙舟「罗浮」</t>
+  </si>
+  <si>
+    <t>令金人巷再次繁荣！</t>
+  </si>
+  <si>
+    <t>完成任务「金戺重喧•其四」，赢下金人巷商业区竞标</t>
+  </si>
+  <si>
+    <t>安逸的晚间七点</t>
+  </si>
+  <si>
+    <t>完整收听1期《星际和平播报》</t>
+  </si>
+  <si>
+    <t>草槎借箭</t>
+  </si>
+  <si>
+    <t>「金人旧巷市廛喧」中，在货运星槎上码放6个金人司阍</t>
+  </si>
+  <si>
+    <t>降维打击</t>
+  </si>
+  <si>
+    <t>「金人旧巷市廛喧」中，在物流规划的界面里点击24艘货运星槎</t>
+  </si>
+  <si>
+    <t>聚宝盆</t>
+  </si>
+  <si>
+    <t>「金人旧巷市廛喧」中，为金人巷商会赚取1000000商会储值金</t>
+  </si>
+  <si>
+    <t>第八号商铺</t>
+  </si>
+  <si>
+    <t>「金人旧巷市廛喧」中，与霍三哥建立起商业合作</t>
+  </si>
+  <si>
+    <t>（系统自动发送）</t>
+  </si>
+  <si>
+    <t>「金人旧巷市廛喧」中，完成「鹤运物流」的客制运单</t>
+  </si>
+  <si>
+    <t>隔窗索唤，市食盈笛</t>
+  </si>
+  <si>
+    <t>「金人旧巷市廛喧」中，完成街巷事件「谛听寻人」</t>
+  </si>
+  <si>
+    <t>千金散尽还复来</t>
+  </si>
+  <si>
+    <t>「金人旧巷市廛喧」中，消费1280000商会储值金</t>
+  </si>
+  <si>
+    <t>危险荷载</t>
+  </si>
+  <si>
+    <t>「金人旧巷市廛喧」中，在一艘货运星槎上码放货物达到81</t>
+  </si>
+  <si>
+    <t>夜市：天际线</t>
+  </si>
+  <si>
+    <t>「金人旧巷市廛喧」中，任意一家商铺的航线规划分数达到81</t>
+  </si>
+  <si>
+    <t>往复不止</t>
+  </si>
+  <si>
+    <t>向克利欧讲述陶德一事的真相</t>
+  </si>
+  <si>
+    <t>岔路新生</t>
+  </si>
+  <si>
+    <t>向克利欧隐瞒陶德一事的真相</t>
+  </si>
+  <si>
+    <t>忘川之水何其苦</t>
+  </si>
+  <si>
+    <t>完成同行任务「全面回忆」</t>
+  </si>
+  <si>
+    <t>雪原的原风景</t>
+  </si>
+  <si>
+    <t>完成同行任务「比雪原更遥远」</t>
+  </si>
+  <si>
+    <t>旧时雨露</t>
+  </si>
+  <si>
+    <t>完成同行任务「龙返其乡」</t>
+  </si>
+  <si>
+    <t>只剩下雪白的灰</t>
+  </si>
+  <si>
+    <t>完成同行任务「我的挚爱，我的血肉」</t>
+  </si>
+  <si>
+    <t>鹤运物流，使命不达</t>
+  </si>
+  <si>
+    <t>调查所有金人巷的特殊快递箱</t>
+  </si>
+  <si>
+    <t>道可道，无间道</t>
+  </si>
+  <si>
+    <t>见证永仁隐藏身份的故事</t>
+  </si>
+  <si>
+    <t>破冰镐</t>
+  </si>
+  <si>
+    <t>使用玲可击败被冻住的敌人</t>
+  </si>
+  <si>
+    <t>以朗道之名！</t>
+  </si>
+  <si>
+    <t>使用同时包含希露瓦、杰帕德、玲可的队伍获得1场战斗的胜利</t>
+  </si>
+  <si>
+    <t>演武仪典：重剑试</t>
+  </si>
+  <si>
+    <t>使用我方角色素裳对战彦卿时完成制胜一击</t>
+  </si>
+  <si>
+    <t>演武仪典：细剑试</t>
+  </si>
+  <si>
+    <t>使用我方角色罗刹对战彦卿时完成制胜一击</t>
+  </si>
+  <si>
+    <t>最佳第五…虫？</t>
+  </si>
+  <si>
+    <t>利用次蛰虫或幼蛰虫施放的「蛰亡语」消灭虫群•真蛰虫</t>
+  </si>
+  <si>
+    <t>我即是虫群</t>
+  </si>
+  <si>
+    <t>当虫群•真蛰虫施放「虫群突袭」时，场上不存在幼蛰虫或次蛰虫</t>
+  </si>
+  <si>
+    <t>只是虫子</t>
+  </si>
+  <si>
+    <t>单次攻击中同时消灭2只虫群•真蛰虫</t>
+  </si>
+  <si>
+    <t>演武仪典：阵刀试</t>
+  </si>
+  <si>
+    <t>使用我方角色景元对战彦卿时完成制胜一击</t>
+  </si>
+  <si>
+    <t>让炮弹飞</t>
+  </si>
+  <si>
+    <t>探索中使用娜塔莎攻击超远距离敌人并进入战斗</t>
+  </si>
+  <si>
+    <t>三龙出海</t>
+  </si>
+  <si>
+    <t>单场战斗中连续3次在丹恒•饮月的回合施放「盘拏耀跃」</t>
+  </si>
+  <si>
+    <t>求生、求生、求生</t>
+  </si>
+  <si>
+    <t>单场战斗使用玲可提高3次友方生命上限</t>
+  </si>
+  <si>
+    <t>呵，银河大乐透？</t>
+  </si>
+  <si>
+    <t>单场战斗中，符玄累计触发4次天赋「乾清坤夷，否极泰来」的生命回复效果</t>
+  </si>
+  <si>
+    <t>星穹铁道 1.4 版本成就</t>
+  </si>
+  <si>
+    <t>晴天收伞，雨天借伞</t>
+  </si>
+  <si>
+    <t>（再次）帮助雅利洛-Ⅵ和贝洛伯格解决巨大的危机</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4	</t>
+  </si>
+  <si>
+    <t>登入名人堂</t>
+  </si>
+  <si>
+    <t>在「以太战线•星际决胜庆典」中获得「冠军首席」称号</t>
+  </si>
+  <si>
+    <t>雪山之巅的王者</t>
+  </si>
+  <si>
+    <t>在「以太战线」中，于永冬岭结束宿命的对决</t>
+  </si>
+  <si>
+    <t>剑折铸复良</t>
+  </si>
+  <si>
+    <t>完成同行任务「云无留迹」</t>
+  </si>
+  <si>
+    <t>收服以太灵了！</t>
+  </si>
+  <si>
+    <t>在「以太战线」中，获得所有以太灵</t>
+  </si>
+  <si>
+    <t>以太战线大师</t>
+  </si>
+  <si>
+    <t>在「以太战线」中，「决胜者评级」达到最高级</t>
+  </si>
+  <si>
+    <t>超链接路人王</t>
+  </si>
+  <si>
+    <t>在「以太战线•超链接对决」中击败所有对手</t>
+  </si>
+  <si>
+    <t>凛风徽章</t>
+  </si>
+  <si>
+    <t>在「以太战线」中，完成残响回廊的决胜乐园的所有考验</t>
+  </si>
+  <si>
+    <t>镕金徽章</t>
+  </si>
+  <si>
+    <t>在「以太战线」中，完成流云渡的决胜乐园的所有考验</t>
+  </si>
+  <si>
+    <t>智才徽章</t>
+  </si>
+  <si>
+    <t>在「以太战线」中，完成空间站「黑塔」的决胜乐园的所有考验</t>
+  </si>
+  <si>
+    <t>假面徽章</t>
+  </si>
+  <si>
+    <t>在「以太战线」中，完成大矿区的决胜乐园的所有考验</t>
+  </si>
+  <si>
+    <t>我们是冠军？</t>
+  </si>
+  <si>
+    <t>在「以太战线」中，获得一场「表演赛」的胜利</t>
+  </si>
+  <si>
+    <t>铁齿铜牙</t>
+  </si>
+  <si>
+    <t>聆听小小西衍的节目</t>
+  </si>
+  <si>
+    <t>说学逗唱</t>
+  </si>
+  <si>
+    <t>聆听小往小来的节目</t>
+  </si>
+  <si>
+    <t>腿只是装饰而已</t>
+  </si>
+  <si>
+    <t>为造物引擎制定一份离谱的策划案</t>
+  </si>
+  <si>
+    <t>动起来啊…造物引擎！</t>
+  </si>
+  <si>
+    <t>为造物引擎制定一份靠谱的策划案</t>
+  </si>
+  <si>
+    <t>这游戏没有版本更新吗？</t>
+  </si>
+  <si>
+    <t>获得所有「以太拓展芯片」</t>
+  </si>
+  <si>
+    <t>北风造英雄</t>
+  </si>
+  <si>
+    <t>在「冬兵进行曲」难度Ⅲ击败门后的杰帕德</t>
+  </si>
+  <si>
+    <t>胜利，然后是再见</t>
+  </si>
+  <si>
+    <t>在尘埃落定后归还{TEXTJOIN#54}</t>
+  </si>
+  <si>
+    <t>结束，然后是开始</t>
+  </si>
+  <si>
+    <t>在尘埃落定后留下{TEXTJOIN#54}</t>
+  </si>
+  <si>
+    <t>未来的第一步</t>
+  </si>
+  <si>
+    <t>关心贝洛伯格的发展动态</t>
+  </si>
+  <si>
+    <t>无机的智慧果</t>
+  </si>
+  <si>
+    <t>获得阅读物《螺丝咕姆的留言》</t>
+  </si>
+  <si>
+    <t>冰原熊之旅</t>
+  </si>
+  <si>
+    <t>与冰原熊幼崽亲切互动</t>
+  </si>
+  <si>
+    <t>谢谢你，佩拉</t>
+  </si>
+  <si>
+    <t>帮助凡迪雅小姐完成赌注</t>
+  </si>
+  <si>
+    <t>钢铁与玩具</t>
+  </si>
+  <si>
+    <t>把造物工程的废料交给本杰明</t>
+  </si>
+  <si>
+    <t>钢铁与路灯</t>
+  </si>
+  <si>
+    <t>把造物工程的废料交给佩拉</t>
+  </si>
+  <si>
+    <t>在巨像的见证下</t>
+  </si>
+  <si>
+    <t>从冻结的栏杆上保住舌头</t>
+  </si>
+  <si>
+    <t>危险动作，请勿模仿</t>
+  </si>
+  <si>
+    <t>再次因打破容器受到教训</t>
+  </si>
+  <si>
+    <t>首先，第一个</t>
+  </si>
+  <si>
+    <t>拥有一个狂热粉丝</t>
+  </si>
+  <si>
+    <t>假面的告白</t>
+  </si>
+  <si>
+    <t>查看来历不明的忆泡</t>
+  </si>
+  <si>
+    <t>冰圾淋</t>
+  </si>
+  <si>
+    <t>从冰封垃圾桶中获得垃圾</t>
+  </si>
+  <si>
+    <t>演武仪典：长枪试</t>
+  </si>
+  <si>
+    <t>使用我方角色丹恒对战彦卿时完成制胜一击</t>
+  </si>
+  <si>
+    <t>演武仪典…？</t>
+  </si>
+  <si>
+    <t>使用我方角色彦卿对战彦卿时完成制胜一击</t>
+  </si>
+  <si>
+    <t>演武仪典：心剑试</t>
+  </si>
+  <si>
+    <t>使用我方角色镜流对战彦卿时完成制胜一击</t>
+  </si>
+  <si>
+    <t>人有四名，代价…</t>
+  </si>
+  <si>
+    <t>在单场战斗中使用我方角色镜流把任意队友生命值消耗至1</t>
+  </si>
+  <si>
+    <t>好…好方</t>
+  </si>
+  <si>
+    <t>大量投喂扑满</t>
+  </si>
+  <si>
+    <t>卧室里的战争</t>
+  </si>
+  <si>
+    <t>使用我方账账击败一只扑满</t>
+  </si>
+  <si>
+    <t>绝对零度</t>
+  </si>
+  <si>
+    <t>使用镜流与定分枪互动</t>
+  </si>
+  <si>
+    <t>过程大于结果</t>
+  </si>
+  <si>
+    <t>从流云渡的茂贞手中购买1个逾期未取的邮包</t>
+  </si>
+  <si>
+    <t>大安事事昌</t>
+  </si>
+  <si>
+    <t>在占卜店首次抽到吉签</t>
+  </si>
+  <si>
+    <t>空亡事不长</t>
+  </si>
+  <si>
+    <t>在占卜店首次抽到凶签</t>
+  </si>
+  <si>
+    <t>速喜朱雀吉行方</t>
+  </si>
+  <si>
+    <t>在占卜店首次抽到摸鱼签</t>
+  </si>
+  <si>
+    <t>贵人路上好商量</t>
+  </si>
+  <si>
+    <t>在占卜店首次抽到闭目签</t>
+  </si>
+  <si>
+    <t>木人：星穹铁道</t>
+  </si>
+  <si>
+    <t>使用「自动木人桩」代为完成3场战斗</t>
   </si>
 </sst>
 </file>
@@ -2889,10 +3653,3466 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{080580B3-CD55-4B3A-91B0-C2ABDCB371F7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDEA9195-C925-4162-B48F-12E457BA24BA}">
+  <dimension ref="A1:H49"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="62.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="5.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>968</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+    </row>
+    <row r="3" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>4032701</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>969</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>970</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="1">
+        <v>10</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
+        <v>4052701</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>972</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>973</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="2">
+        <v>10</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>4052702</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>974</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>975</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="1">
+        <v>5</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
+        <v>4052703</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>976</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>977</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="2">
+        <v>5</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>4052704</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>978</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>979</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="1">
+        <v>5</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
+        <v>4052705</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>980</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>981</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="2">
+        <v>5</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>4052706</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>982</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>983</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="1">
+        <v>5</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A11" s="2">
+        <v>4052707</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>984</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>985</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="2">
+        <v>5</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>4052708</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>986</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>987</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="1">
+        <v>5</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A13" s="2">
+        <v>4052709</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>988</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>989</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" s="2">
+        <v>5</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>4052710</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>990</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>991</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" s="1">
+        <v>5</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A15" s="2">
+        <v>4052711</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>992</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>993</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" s="2">
+        <v>5</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>4052712</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>994</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>995</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" s="1">
+        <v>5</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A17" s="2">
+        <v>4052713</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>996</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>997</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E17" s="2">
+        <v>5</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>4052714</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>998</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>999</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E18" s="1">
+        <v>5</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A19" s="2">
+        <v>4052715</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>1001</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E19" s="2">
+        <v>5</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>4052716</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>1003</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E20" s="1">
+        <v>5</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A21" s="2">
+        <v>4052717</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>1004</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>1005</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E21" s="2">
+        <v>5</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>4052718</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>1006</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>1007</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E22" s="1">
+        <v>5</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A23" s="2">
+        <v>4052719</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>1008</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>1009</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E23" s="2">
+        <v>5</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <v>4052720</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>1010</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>1011</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E24" s="1">
+        <v>5</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A25" s="2">
+        <v>4052721</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>1012</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>1013</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E25" s="2">
+        <v>5</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
+        <v>4052722</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>1014</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>1015</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E26" s="1">
+        <v>5</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A27" s="2">
+        <v>4052723</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>1017</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E27" s="2">
+        <v>5</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
+        <v>4052724</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>1018</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>1019</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E28" s="1">
+        <v>5</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A29" s="2">
+        <v>4052725</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>1021</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E29" s="2">
+        <v>5</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
+        <v>4052726</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>1022</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>1023</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E30" s="1">
+        <v>5</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A31" s="2">
+        <v>4052727</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>1024</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>1025</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E31" s="2">
+        <v>5</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A32" s="1">
+        <v>4052728</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>1026</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>1027</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E32" s="1">
+        <v>5</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A33" s="2">
+        <v>4052729</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>1029</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E33" s="2">
+        <v>5</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A34" s="1">
+        <v>4052730</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>1030</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>1031</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E34" s="1">
+        <v>5</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A35" s="2">
+        <v>4072701</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>1032</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>1033</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E35" s="2">
+        <v>5</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A36" s="1">
+        <v>4072702</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>1034</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>1035</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E36" s="1">
+        <v>5</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A37" s="2">
+        <v>4072703</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>1036</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>1037</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E37" s="2">
+        <v>5</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A38" s="1">
+        <v>4072704</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>1038</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>1039</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E38" s="1">
+        <v>5</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A39" s="2">
+        <v>4082701</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>1040</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>1041</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E39" s="2">
+        <v>5</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A40" s="1">
+        <v>4082702</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>1042</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>1043</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E40" s="1">
+        <v>5</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A41" s="2">
+        <v>4082703</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>1044</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>1045</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E41" s="2">
+        <v>5</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A42" s="1">
+        <v>4082704</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>1046</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>1047</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E42" s="1">
+        <v>5</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A43" s="2">
+        <v>4082705</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>1048</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>1049</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E43" s="2">
+        <v>5</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A44" s="1">
+        <v>4082706</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>1050</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>1051</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E44" s="1">
+        <v>5</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A45" s="2">
+        <v>4082707</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>1053</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E45" s="2">
+        <v>5</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A46" s="1">
+        <v>4082708</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>1054</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>1055</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E46" s="1">
+        <v>5</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A47" s="2">
+        <v>4082709</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>1057</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E47" s="2">
+        <v>5</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A48" s="4" t="s">
+        <v>707</v>
+      </c>
+      <c r="B48" s="4"/>
+      <c r="C48" s="4"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="4"/>
+      <c r="H48" s="4"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A49" s="4" t="s">
+        <v>708</v>
+      </c>
+      <c r="B49" s="4"/>
+      <c r="C49" s="4"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="4"/>
+      <c r="H49" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A48:H48"/>
+    <mergeCell ref="A49:H49"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C4CFF6E-B8F1-4708-9887-4E17933540B6}">
+  <dimension ref="A1:H86"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="88.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="5.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>804</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+    </row>
+    <row r="3" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>4092601</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>805</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>806</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="1">
+        <v>5</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
+        <v>4092602</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>808</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>809</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="2">
+        <v>5</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>4092603</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>810</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>811</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="1">
+        <v>5</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
+        <v>4092604</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>812</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>813</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="2">
+        <v>5</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>4092605</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>814</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>815</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="1">
+        <v>5</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
+        <v>4092606</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>816</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>817</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="2">
+        <v>5</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>4092607</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>818</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>819</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="1">
+        <v>5</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="A11" s="2">
+        <v>4092608</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>820</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>821</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="2">
+        <v>5</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>4092609</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>822</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>823</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="1">
+        <v>5</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A13" s="2">
+        <v>4092610</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>824</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>825</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" s="2">
+        <v>5</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>4092611</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>826</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>827</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" s="1">
+        <v>5</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A15" s="2">
+        <v>4092612</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>828</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>829</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" s="2">
+        <v>5</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>4092613</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>830</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>831</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" s="1">
+        <v>5</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A17" s="2">
+        <v>4092614</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>832</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>833</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E17" s="2">
+        <v>5</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>4092615</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>834</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>835</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E18" s="1">
+        <v>5</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A19" s="2">
+        <v>4092616</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>836</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>837</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E19" s="2">
+        <v>5</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>4092617</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>838</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>839</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E20" s="1">
+        <v>10</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A21" s="2">
+        <v>4092618</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>840</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>841</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E21" s="2">
+        <v>5</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>4092619</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>842</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>843</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E22" s="1">
+        <v>5</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A23" s="2">
+        <v>4092620</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>844</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>845</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E23" s="2">
+        <v>5</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <v>4092621</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>846</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>847</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E24" s="1">
+        <v>5</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A25" s="2">
+        <v>4092622</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>848</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>849</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E25" s="2">
+        <v>5</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
+        <v>4092623</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>850</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>851</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E26" s="1">
+        <v>5</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A27" s="2">
+        <v>4092624</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>852</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>853</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E27" s="2">
+        <v>5</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
+        <v>4092625</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>854</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>855</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E28" s="1">
+        <v>5</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A29" s="2">
+        <v>4092626</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>856</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>857</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E29" s="2">
+        <v>5</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
+        <v>4092627</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>858</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>859</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E30" s="1">
+        <v>5</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A31" s="2">
+        <v>4092628</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>860</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>861</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E31" s="2">
+        <v>5</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A32" s="1">
+        <v>4092629</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>862</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>863</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E32" s="1">
+        <v>5</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A33" s="2">
+        <v>4092630</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>864</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>865</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E33" s="2">
+        <v>5</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="A34" s="1">
+        <v>4092631</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>866</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>867</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E34" s="1">
+        <v>5</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A35" s="2">
+        <v>4092632</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>868</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>869</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E35" s="2">
+        <v>5</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A36" s="1">
+        <v>4092633</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>870</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>871</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E36" s="1">
+        <v>5</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A37" s="2">
+        <v>4092634</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>872</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>873</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E37" s="2">
+        <v>5</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A38" s="1">
+        <v>4092635</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>874</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>875</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E38" s="1">
+        <v>5</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A39" s="2">
+        <v>4092636</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>876</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>877</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E39" s="2">
+        <v>10</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A40" s="1">
+        <v>4092637</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>878</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>879</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E40" s="1">
+        <v>10</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A41" s="2">
+        <v>4092638</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>880</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>881</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E41" s="2">
+        <v>5</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A42" s="1">
+        <v>4092639</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>882</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>883</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E42" s="1">
+        <v>5</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A43" s="2">
+        <v>4092640</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>884</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>885</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E43" s="2">
+        <v>5</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A44" s="1">
+        <v>4092641</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>886</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>887</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E44" s="1">
+        <v>5</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A45" s="2">
+        <v>4082601</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>888</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>889</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E45" s="2">
+        <v>5</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A46" s="1">
+        <v>4082602</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>890</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>891</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E46" s="1">
+        <v>5</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A47" s="2">
+        <v>4082603</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>892</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>893</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E47" s="2">
+        <v>5</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A48" s="1">
+        <v>4082604</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>894</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>895</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E48" s="1">
+        <v>5</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A49" s="2">
+        <v>4082605</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>896</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>897</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E49" s="2">
+        <v>5</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A50" s="1">
+        <v>4082606</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>898</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>899</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E50" s="1">
+        <v>5</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A51" s="2">
+        <v>4082607</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>900</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>901</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E51" s="2">
+        <v>5</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A52" s="1">
+        <v>4082608</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>902</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>903</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E52" s="1">
+        <v>5</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A53" s="2">
+        <v>4032601</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>904</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>905</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E53" s="2">
+        <v>10</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A54" s="1">
+        <v>4052601</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>906</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>907</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E54" s="1">
+        <v>10</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A55" s="2">
+        <v>4052603</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>908</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>909</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E55" s="2">
+        <v>5</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H55" s="2" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A56" s="1">
+        <v>4052604</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>910</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>911</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E56" s="1">
+        <v>5</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A57" s="2">
+        <v>4052605</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>912</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>913</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E57" s="2">
+        <v>10</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H57" s="2" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A58" s="1">
+        <v>4052606</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>914</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>915</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E58" s="1">
+        <v>5</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A59" s="2">
+        <v>4052607</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>916</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>917</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E59" s="2">
+        <v>5</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H59" s="2" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A60" s="1">
+        <v>4052608</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>918</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>919</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E60" s="1">
+        <v>5</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A61" s="2">
+        <v>4052609</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>920</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>921</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E61" s="2">
+        <v>5</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H61" s="2" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A62" s="1">
+        <v>4052610</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>922</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>923</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E62" s="1">
+        <v>5</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A63" s="2">
+        <v>4052611</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>924</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>925</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E63" s="2">
+        <v>5</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H63" s="2" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A64" s="1">
+        <v>4052612</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>926</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>927</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E64" s="1">
+        <v>5</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A65" s="2">
+        <v>4052613</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>928</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>929</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E65" s="2">
+        <v>5</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H65" s="2" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A66" s="1">
+        <v>4052614</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>930</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>931</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E66" s="1">
+        <v>5</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H66" s="1" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A67" s="2">
+        <v>4052615</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>932</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>933</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E67" s="2">
+        <v>5</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H67" s="2" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A68" s="1">
+        <v>4052616</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>934</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>935</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E68" s="1">
+        <v>5</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H68" s="1" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A69" s="2">
+        <v>4052617</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>936</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>937</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E69" s="2">
+        <v>5</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H69" s="2" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A70" s="1">
+        <v>4052618</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>938</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>939</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E70" s="1">
+        <v>5</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H70" s="1" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A71" s="2">
+        <v>4052619</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>940</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>941</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E71" s="2">
+        <v>5</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H71" s="2" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A72" s="1">
+        <v>4052620</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>942</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>943</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E72" s="1">
+        <v>5</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H72" s="1" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A73" s="2">
+        <v>4072601</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>944</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>945</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E73" s="2">
+        <v>5</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H73" s="2" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A74" s="1">
+        <v>4072602</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>946</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>947</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E74" s="1">
+        <v>5</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H74" s="1" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A75" s="2">
+        <v>4072603</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>948</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>949</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E75" s="2">
+        <v>5</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H75" s="2" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A76" s="1">
+        <v>4072604</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>950</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>951</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E76" s="1">
+        <v>5</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H76" s="1" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A77" s="2">
+        <v>4072605</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>952</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>953</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E77" s="2">
+        <v>5</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H77" s="2" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A78" s="1">
+        <v>4072606</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>954</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>955</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E78" s="1">
+        <v>5</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H78" s="1" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A79" s="2">
+        <v>4072607</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>956</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>957</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E79" s="2">
+        <v>5</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H79" s="2" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A80" s="1">
+        <v>4072608</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>958</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>959</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E80" s="1">
+        <v>5</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H80" s="1" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A81" s="2">
+        <v>4072609</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>960</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>961</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E81" s="2">
+        <v>5</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H81" s="2" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A82" s="1">
+        <v>4072610</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>962</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>963</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E82" s="1">
+        <v>5</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H82" s="1" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A83" s="2">
+        <v>4072611</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>964</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>965</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E83" s="2">
+        <v>5</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H83" s="2" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A84" s="1">
+        <v>4072612</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>966</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>967</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E84" s="1">
+        <v>5</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="G84" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H84" s="1" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A85" s="4" t="s">
+        <v>707</v>
+      </c>
+      <c r="B85" s="4"/>
+      <c r="C85" s="4"/>
+      <c r="D85" s="4"/>
+      <c r="E85" s="4"/>
+      <c r="F85" s="4"/>
+      <c r="G85" s="4"/>
+      <c r="H85" s="4"/>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A86" s="4" t="s">
+        <v>708</v>
+      </c>
+      <c r="B86" s="4"/>
+      <c r="C86" s="4"/>
+      <c r="D86" s="4"/>
+      <c r="E86" s="4"/>
+      <c r="F86" s="4"/>
+      <c r="G86" s="4"/>
+      <c r="H86" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A85:H85"/>
+    <mergeCell ref="A86:H86"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83EED525-D8EE-458A-8000-DDBCBC1E233C}">
   <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -3215,7 +7435,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="47.25" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>4072504</v>
       </c>
@@ -3771,8 +7991,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AAF3D04-E4E8-4C5B-8F7E-10FB9106164E}">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AE4B76A-B318-4E3D-A555-2DC768CE5FEB}">
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4290,8 +8510,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A2113D9-6293-4996-A5EB-7554C570CFA2}">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84928BC4-869F-40A3-94A6-0D2A4653DD42}">
   <dimension ref="A1:H346"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
